--- a/Literature Review/Synthesis Matrix.xlsx
+++ b/Literature Review/Synthesis Matrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Argument 1</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>\cite{Kumar2009}</t>
-  </si>
-  <si>
     <t>\cite{Ghosh2015}</t>
   </si>
   <si>
@@ -150,6 +147,28 @@
   </si>
   <si>
     <t>\cite{{Tesfamariam2015}</t>
+  </si>
+  <si>
+    <t>Available monotonic and cyclic test data were analyzed to evaluate the statistics of the appropriate parameters of the proposed damage model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A seismic damage model for reinforced concrete members is pro-
+posed. The model is based on the premise that the total damage from earthquake motions is composed of the damage caused by the maximum structural deformation and the absorbed hysteretic energy. Damage is measured in terms of an index, D, with values D s 1.0 representing total collapse.  </t>
+  </si>
+  <si>
+    <t>The lognormal distribution was determined to be appropriate for the damage index of reinforced concrete components. Values of the damage index should be calibrated with observed seis- mic damage of structures</t>
+  </si>
+  <si>
+    <t>IDARC Version 3.0: A Program for the Inelastic Damage Analysis of RC Structures</t>
+  </si>
+  <si>
+    <t>\cite{Kunath}</t>
+  </si>
+  <si>
+    <t>Performance Assessment of Steel Component</t>
+  </si>
+  <si>
+    <t>\cite{Krawinkler}</t>
   </si>
 </sst>
 </file>
@@ -345,42 +364,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,6 +398,42 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,341 +760,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
+      <c r="A14" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="A12:D13"/>
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="M14:P15"/>
     <mergeCell ref="I8:L9"/>
@@ -1083,12 +1092,22 @@
     <mergeCell ref="M6:P7"/>
     <mergeCell ref="M8:P9"/>
     <mergeCell ref="M10:P11"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1096,153 +1115,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="6" width="30.5703125" customWidth="1"/>
+    <col min="2" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
       <c r="B3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="2"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1251,16 +1288,17 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1269,18 +1307,19 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="2"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1289,26 +1328,27 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="1:16" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1317,24 +1357,25 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
       <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="E13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1343,8 +1384,9 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -1353,8 +1395,8 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1363,8 +1405,9 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
@@ -1373,8 +1416,8 @@
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1383,8 +1426,9 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
@@ -1393,8 +1437,8 @@
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1403,16 +1447,17 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="28"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1421,16 +1466,17 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1439,16 +1485,17 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1457,16 +1504,17 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1475,64 +1523,68 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="2"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="28"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13"/>
+      <c r="D22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="F22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="45" t="s">
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -1541,12 +1593,13 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="3"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1555,12 +1608,13 @@
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="3"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="30"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
@@ -1569,78 +1623,84 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="3"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="30"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="4"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="37"/>
-    </row>
-    <row r="32" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="E32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="6"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="27"/>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
@@ -1649,22 +1709,23 @@
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="Q32" s="6"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
       <c r="B33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="10"/>
       <c r="F33" s="10"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -1673,8 +1734,9 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-    </row>
-    <row r="34" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1683,18 +1745,19 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="17"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="31"/>
       <c r="I34" s="17"/>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="17"/>
       <c r="M34" s="17"/>
-      <c r="N34" s="6"/>
+      <c r="N34" s="17"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1703,18 +1766,19 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="18"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
-      <c r="N35" s="6"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
-    </row>
-    <row r="36" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
@@ -1723,80 +1787,84 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="18"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="18"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
-    </row>
-    <row r="37" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="18"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="18"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="5"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="5"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
-    </row>
-    <row r="39" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="5"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="5"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="5"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
@@ -1805,16 +1873,17 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="27"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
@@ -1823,9 +1892,9 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G42" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
@@ -1835,16 +1904,17 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Literature Review/Synthesis Matrix.xlsx
+++ b/Literature Review/Synthesis Matrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Argument 1</t>
   </si>
@@ -169,6 +169,93 @@
   </si>
   <si>
     <t>\cite{Krawinkler}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. This damage model contains two structural performance parameters, C and c. The coefficient C depends strongly on the failure mode and on detailing and exhibits considerable scatter. The exponent c is a much more stable parameter and appears to be usually in the range of 1.5 to 2.0.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The parameters C and c can be determined from a testing program that consists of a series of constant deformation amplitude tests. Single specimen testing cannot provide the information needed for a generalization of test results to different seismic response histories.
+</t>
+  </si>
+  <si>
+    <t>Damage accumulation is a function of the number of inelastic e_xcursions and of the magnitudes of all plastic deformation ranges a component wiJl experience in an earthquake. The number of inelastic excursions, N, increases almost linearly with the strong motion duration of an earthquake. The plastic deformation ranges can be described by lognormal distributions that are truncated with respect to the maximum plastic deformation range. Because of the linear dependence of N on duration, cumulative damage will increase with strong motion duration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used a modified Park and ang model, to model Damagae at the local level for elements in a structural analysis. </t>
+  </si>
+  <si>
+    <t>The parameters need to be calibrated to test results</t>
+  </si>
+  <si>
+    <t>Carries the same problem from Park and ang model in which the nonlinear paremeter associated with the energy term is generally very small and thus it does not consider the effects of damage accumulation</t>
+  </si>
+  <si>
+    <t>A time-independent Poisson process is used to
+model the occurrence of the mainshocks and a time-dependent
+Poisson process for the aftershocks</t>
+  </si>
+  <si>
+    <t>Probabilistic models are developed for computing
+degraded curvature capacity of reinforced concrete (RC) sections and the deformation capacity for RC bridge columns as a function of cumulative low-cycle fatigue damage. The models are developed for flexural RC columns because only such RC columns are affected by low-cycle fatigue. These degradation models are developed on the basis of the cyclic-load tests conducted on finite element (FE) models of RC columns. The developed FE models capture the structural degradation phenomena such as strength and stiffness degradation, and pinching and fatigue of longitudinal steel. Cyclic-load tests are conducted to generate the degradation data in the curvature capacity of RC column sections. In the cyclic-load tests, the FE models are subjected to constant amplitude
+cycles to induce fatigue damage. Thereafter, the FE model is subjected to a monotonic pushover to compute the residual capacity. The calibration of the probabilistic model is done by using a Bayesian approach.</t>
+  </si>
+  <si>
+    <t>In this study, it is found that the probability of observing more than one damaging earthquake in a bridge’s life time is nearly equal to the probability of observing exactly one damaging earthquake. It is also noted that the probability of observing more than one damaging earthquake increases with the service life of a bridge.</t>
+  </si>
+  <si>
+    <t>In this study a framework is developed to estimate the probability of tructural damage due to repeated earthquake occurrences while also accounting for the random nature of hazard ccurrence. Chosen as an indicator of accumulated damage, the Park and  Ang damage index helps to quantify
+damage using maximum curvature Ductility induced by the earthquake and energy dissipated by the structure.</t>
+  </si>
+  <si>
+    <t>A preliminary step in the damage accumulation framework is the development
+of linear (for single shocks) or multilinear (for multiple shocks) regression equations to
+statistically predict the damage index as a function of earthquake intensity and damage history.</t>
+  </si>
+  <si>
+    <t>This study reveals that for both main shock and aftershock scenarios there is a significant
+increase in the probability of damage index exceedance under repeated shock scenarios in the
+chosen time windows. Although it treats lifetime main shocks and aftershocks as separate
+scenarios, future work will focus on their joint consideration in the same framework</t>
+  </si>
+  <si>
+    <t>A damage index associated with ductility
+and stiffness degradation is proposed. The proposed index has a strong correlation with
+the portion of the earthquake energy that is associated with inelastic action.</t>
+  </si>
+  <si>
+    <t>Damage
+indices may be used in a damage-based design approach to compute the earthquake
+forces and hysteretic energy demand rather than a response modification factor that is
+based on the structural systems and construction materials</t>
+  </si>
+  <si>
+    <t>The proposed
+framework considers damage from natural hazards as
+well as the time-dependent effects of aging and deterioration,
+and explicitly includes the uncertainties in
+geometrical and mechanical properties of the structure,
+hazard intensity measures, damage states, and costs</t>
+  </si>
+  <si>
+    <t>The results were presented as
+contour lines for the probability of exceeding a predetermined
+cost, highlighting the utility of the framework
+to address practical design problems.
+It was also concluded that
+in the San Francisco seismic zone, the probability of
+costs exceeding the threshold can be decreased by increasing
+both of concrete cover and reinforcement bar
+diameter. However, in the New Madrid seismic zone,
+a different trend was observed, where for each specific
+bar diameter, increasing concrete cover was found to be
+helpful to some point and then it started to increase the
+probability of exceeding the predetermined cost</t>
+  </si>
+  <si>
+    <t>The case
+study further demonstrated the influence of the level of
+seismicity not only on the optimum design results</t>
   </si>
 </sst>
 </file>
@@ -280,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,11 +390,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -398,6 +498,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,12 +519,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,10 +528,28 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,331 +878,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37" t="s">
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="M14:P15"/>
     <mergeCell ref="I8:L9"/>
@@ -1092,22 +1220,12 @@
     <mergeCell ref="M6:P7"/>
     <mergeCell ref="M8:P9"/>
     <mergeCell ref="M10:P11"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="A12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1118,13 +1236,16 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="7" width="30.5703125" customWidth="1"/>
+    <col min="2" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="6" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1155,9 +1276,6 @@
       <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
@@ -1180,9 +1298,6 @@
       <c r="D3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" s="14" t="s">
         <v>24</v>
       </c>
@@ -1194,51 +1309,70 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="H4" s="28"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="C5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="H5" s="28"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="G6" s="15"/>
       <c r="H6" s="28"/>
       <c r="I6" s="2"/>
@@ -1310,15 +1444,15 @@
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="28"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1330,23 +1464,23 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
+      <c r="D12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="E12" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="19" t="s">
         <v>15</v>
       </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="28"/>
       <c r="I12" s="2"/>
@@ -1362,18 +1496,18 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="41"/>
       <c r="B13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="D13" s="14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="28"/>
       <c r="I13" s="2"/>
@@ -1386,14 +1520,20 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="28"/>
@@ -1407,14 +1547,20 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="321" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="28"/>
@@ -1428,14 +1574,20 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="153" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="28"/>
@@ -1525,7 +1677,7 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>6</v>
       </c>
@@ -1533,8 +1685,8 @@
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="28"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1547,17 +1699,17 @@
       <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="D22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="16"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="30"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1568,17 +1720,17 @@
       <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" s="16" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="16"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="30"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1592,8 +1744,8 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
       <c r="H24" s="30"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1607,8 +1759,8 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="H25" s="30"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1622,8 +1774,8 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="30"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1673,31 +1825,31 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
+      <c r="C32" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="D32" s="13" t="s">
         <v>21</v>
       </c>
+      <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="27"/>
@@ -1712,17 +1864,17 @@
       <c r="Q32" s="6"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="D33" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="27"/>
@@ -1740,9 +1892,9 @@
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -1761,9 +1913,9 @@
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1782,9 +1934,9 @@
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -1912,10 +2064,10 @@
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Literature Review/Synthesis Matrix.xlsx
+++ b/Literature Review/Synthesis Matrix.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependent_PBD\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B2189-9E70-48D3-A3AC-062D6BEE4B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Themes" sheetId="2" r:id="rId1"/>
@@ -19,14 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -261,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -498,59 +491,59 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,354 +858,344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8:P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="16" width="10.5703125" customWidth="1"/>
+    <col min="1" max="16" width="10.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-    </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-    </row>
-    <row r="4" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+    </row>
+    <row r="4" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-    </row>
-    <row r="5" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-    </row>
-    <row r="6" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+    </row>
+    <row r="5" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+    </row>
+    <row r="6" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-    </row>
-    <row r="7" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-    </row>
-    <row r="8" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+    </row>
+    <row r="7" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+    </row>
+    <row r="8" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-    </row>
-    <row r="9" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-    </row>
-    <row r="10" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+    </row>
+    <row r="9" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-    </row>
-    <row r="11" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+    </row>
+    <row r="11" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-    </row>
-    <row r="13" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-    </row>
-    <row r="14" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+    </row>
+    <row r="13" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+    </row>
+    <row r="14" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-    </row>
-    <row r="15" spans="1:16" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+    </row>
+    <row r="15" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="A12:D13"/>
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="M14:P15"/>
     <mergeCell ref="I8:L9"/>
@@ -1220,51 +1203,61 @@
     <mergeCell ref="M6:P7"/>
     <mergeCell ref="M8:P9"/>
     <mergeCell ref="M10:P11"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
-    <col min="6" max="7" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" customWidth="1"/>
+    <col min="2" max="3" width="30.578125" customWidth="1"/>
+    <col min="4" max="4" width="36.578125" customWidth="1"/>
+    <col min="5" max="5" width="45.68359375" customWidth="1"/>
+    <col min="6" max="7" width="30.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="28"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:17" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -1287,8 +1280,8 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="46"/>
       <c r="B3" s="14" t="s">
         <v>27</v>
       </c>
@@ -1309,7 +1302,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1326,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:17" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="116.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1350,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:17" ht="216.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="193.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1372,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -1392,7 +1385,7 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -1405,7 +1398,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1424,7 +1417,7 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1443,16 +1436,16 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
       <c r="H11" s="28"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1464,8 +1457,8 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:17" ht="38.700000000000003" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -1493,8 +1486,8 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="46"/>
       <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
@@ -1520,7 +1513,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:17" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="141.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="15" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1540,7 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
-    <row r="15" spans="1:17" ht="321" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="321" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="15" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1567,7 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="153" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="154.80000000000001" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="15" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1594,7 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1620,7 +1613,7 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1639,7 +1632,7 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1658,7 +1651,7 @@
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1677,23 +1670,23 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="28"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -1708,15 +1701,15 @@
       <c r="E22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="30"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
+    <row r="23" spans="1:17" ht="14.7" x14ac:dyDescent="0.6">
+      <c r="A23" s="46"/>
       <c r="B23" s="33" t="s">
         <v>32</v>
       </c>
@@ -1729,14 +1722,14 @@
       <c r="E23" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
       <c r="H23" s="30"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
@@ -1744,14 +1737,14 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="30"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>1</v>
       </c>
@@ -1759,14 +1752,14 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="30"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9" t="s">
         <v>2</v>
       </c>
@@ -1774,14 +1767,14 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="30"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="22"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1794,7 +1787,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -1804,7 +1797,7 @@
       <c r="G28" s="23"/>
       <c r="H28" s="25"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -1814,7 +1807,7 @@
       <c r="G29" s="23"/>
       <c r="H29" s="25"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -1824,20 +1817,20 @@
       <c r="G30" s="23"/>
       <c r="H30" s="25"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
       <c r="H31" s="25"/>
     </row>
-    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+    <row r="32" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="13" t="s">
@@ -1863,8 +1856,8 @@
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="47"/>
       <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1881,7 @@
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
     </row>
-    <row r="34" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1902,7 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -1930,7 +1923,7 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
     </row>
-    <row r="36" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11" t="s">
         <v>2</v>
       </c>
@@ -1951,7 +1944,7 @@
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
     </row>
-    <row r="37" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -1970,7 +1963,7 @@
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
     </row>
-    <row r="38" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="25"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
@@ -1989,7 +1982,7 @@
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
     </row>
-    <row r="39" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="14.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="25"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
@@ -2008,7 +2001,7 @@
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="25"/>
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
@@ -2027,7 +2020,7 @@
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2046,7 +2039,7 @@
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>

--- a/Literature Review/Synthesis Matrix.xlsx
+++ b/Literature Review/Synthesis Matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependent_PBD\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872B2189-9E70-48D3-A3AC-062D6BEE4B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B44550-0734-463D-8A33-7023594FAC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,6 +506,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,12 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,331 +871,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
     </row>
     <row r="4" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45" t="s">
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45" t="s">
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45" t="s">
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="45"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
     </row>
     <row r="13" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="45" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
     </row>
     <row r="15" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="M14:P15"/>
     <mergeCell ref="I8:L9"/>
@@ -1203,22 +1213,12 @@
     <mergeCell ref="M6:P7"/>
     <mergeCell ref="M8:P9"/>
     <mergeCell ref="M10:P11"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="A12:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1229,7 +1229,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Literature Review/Synthesis Matrix.xlsx
+++ b/Literature Review/Synthesis Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ConditionDependent_PBD\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B44550-0734-463D-8A33-7023594FAC9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693946A6-FDE9-42AB-93BD-9AC947A1BEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,26 +506,26 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,341 +871,331 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="45" t="s">
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40" t="s">
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40" t="s">
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
     </row>
     <row r="5" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
     </row>
     <row r="6" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
     </row>
     <row r="7" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
     </row>
     <row r="9" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
     </row>
     <row r="10" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40" t="s">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
     </row>
     <row r="13" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
     </row>
     <row r="14" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
     </row>
     <row r="15" spans="1:16" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:P2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="I6:L7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E6:H7"/>
-    <mergeCell ref="E8:H9"/>
-    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="E12:H13"/>
+    <mergeCell ref="E14:H15"/>
+    <mergeCell ref="I12:L13"/>
+    <mergeCell ref="I14:L15"/>
+    <mergeCell ref="A12:D13"/>
     <mergeCell ref="M12:P13"/>
     <mergeCell ref="M14:P15"/>
     <mergeCell ref="I8:L9"/>
@@ -1213,12 +1203,22 @@
     <mergeCell ref="M6:P7"/>
     <mergeCell ref="M8:P9"/>
     <mergeCell ref="M10:P11"/>
-    <mergeCell ref="A14:D15"/>
-    <mergeCell ref="E12:H13"/>
-    <mergeCell ref="E14:H15"/>
-    <mergeCell ref="I12:L13"/>
-    <mergeCell ref="I14:L15"/>
-    <mergeCell ref="A12:D13"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E6:H7"/>
+    <mergeCell ref="E8:H9"/>
+    <mergeCell ref="E10:H11"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="I6:L7"/>
+    <mergeCell ref="A1:P2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
